--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject12.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject12.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.70588277226829721</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -176,7 +176,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>0</v>
+        <v>0.55771890514294276</v>
       </c>
       <c r="R1" s="0">
         <v>0</v>
@@ -221,7 +221,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="0">
-        <v>0</v>
+        <v>0.61333359925547826</v>
       </c>
       <c r="AG1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0</v>
+        <v>0.59056516891837618</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>1</v>
+        <v>0.91651559334887744</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.76789154492876133</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -388,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="0">
-        <v>0</v>
+        <v>0.61715642441596819</v>
       </c>
       <c r="X2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0</v>
+        <v>0.81544492981701699</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>0.9044472883094099</v>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
+        <v>0.71912081598364352</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>0</v>
+        <v>0.51169297894409949</v>
       </c>
       <c r="BI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="0">
-        <v>0</v>
+        <v>0.78047909622243705</v>
       </c>
       <c r="BK3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.93292794378257693</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>0.7977985386838069</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.53807718281115702</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
       </c>
       <c r="W4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="0">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>0</v>
+        <v>0.87656876767234015</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>0</v>
+        <v>0.9842407059581153</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>0</v>
+        <v>0.77080339590794433</v>
       </c>
       <c r="AW4" s="0">
         <v>0</v>
@@ -967,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.93343611233412505</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>0</v>
+        <v>0.72012567644956582</v>
       </c>
       <c r="O5" s="0">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>0</v>
+        <v>0.63125905570946028</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="0">
-        <v>0</v>
+        <v>0.57584467180395116</v>
       </c>
       <c r="AI5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>0</v>
+        <v>0.59967495750345357</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>0</v>
+        <v>0.51618600399391878</v>
       </c>
       <c r="AU5" s="0">
-        <v>0</v>
+        <v>0.55587717009814575</v>
       </c>
       <c r="AV5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1185,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>0</v>
+        <v>0.63977595336217985</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>0</v>
+        <v>0.98667115086410595</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>0</v>
+        <v>0.56634852264252533</v>
       </c>
       <c r="BN6" s="0">
-        <v>0</v>
+        <v>0.87560208982252008</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.77265588005901531</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>0</v>
+        <v>0.78971598491222328</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0</v>
+        <v>0.65060593704897496</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>0</v>
+        <v>0.93066965591836137</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="0">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="BD7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>0</v>
+        <v>0.91711362510618666</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0</v>
+        <v>0.83993727856430733</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="0">
-        <v>0</v>
+        <v>0.84161921340581247</v>
       </c>
       <c r="AD8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0</v>
+        <v>0.51336578008712763</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.79306125197145727</v>
       </c>
       <c r="E9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0</v>
+        <v>0.60256924810147949</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>0.88679407855487025</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.71482072692417875</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.87023846057615439</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0</v>
+        <v>0.55820823456084812</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0</v>
+        <v>0.85171566548204458</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
       </c>
       <c r="BP10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.58761582339652874</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.54023187390498706</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.72524257732816011</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>0.95549693879929154</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.52045182208796981</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.96053096610330935</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.86522795107182571</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0</v>
+        <v>0.5950000015031629</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.57431767497347863</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="0">
-        <v>0</v>
+        <v>0.91586770296169751</v>
       </c>
       <c r="AL12" s="0">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="0">
-        <v>0</v>
+        <v>0.90511153477355766</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="BL12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12" s="0">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.60464284714146832</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>0.96473384915773652</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.70301444204274566</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="0">
-        <v>0</v>
+        <v>0.54774833939095946</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="BN13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="0">
         <v>0</v>
@@ -2812,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>0.68180753965674268</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>0.6538553646577685</v>
       </c>
       <c r="F14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.78989487936012726</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>0</v>
+        <v>0.51786021232346902</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2884,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>0</v>
+        <v>0.78666161871113993</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0</v>
+        <v>0.78689205900787851</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>0</v>
+        <v>0.96149381970311565</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>0.80610251047842107</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3057,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.89318865423068083</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0</v>
+        <v>0.82047851191976251</v>
       </c>
       <c r="AR15" s="0">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.99634346893862658</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.54249618869801175</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="0">
         <v>0</v>
@@ -3296,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0</v>
+        <v>0.76885105247037056</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="0">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>0.5044740670297756</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0</v>
+        <v>0.56283834354913886</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.81752643185518747</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>0</v>
+        <v>0.69426385450843775</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3583,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="BB17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="0">
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>0.99841657479221246</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0</v>
+        <v>0.83361049781843644</v>
       </c>
       <c r="O18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="0">
-        <v>0</v>
+        <v>0.52461834735827395</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="0">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>0</v>
+        <v>0.87581745301124192</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>0</v>
+        <v>0.70916509918869064</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0</v>
+        <v>0.64337915635322052</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0</v>
+        <v>0.66962599569924575</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>0</v>
+        <v>0.72011837256756028</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.70454084700780006</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="0">
-        <v>0</v>
+        <v>0.53830471322210283</v>
       </c>
       <c r="BN20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.78804554205654154</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.83477309898299668</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>0</v>
+        <v>0.51963803099015848</v>
       </c>
       <c r="AD21" s="0">
         <v>0</v>
@@ -4371,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0</v>
+        <v>0.56661563701200024</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
       </c>
       <c r="AR21" s="0">
-        <v>0</v>
+        <v>0.57810252003289464</v>
       </c>
       <c r="AS21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.84279243550409166</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0</v>
+        <v>0.64916533156874801</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4589,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="AT22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="0">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="0">
-        <v>0</v>
+        <v>0.79182145227284106</v>
       </c>
       <c r="BL22" s="0">
         <v>0</v>
@@ -4663,16 +4663,16 @@
         <v>0</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>0.57111986996987452</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
       </c>
       <c r="D23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>0</v>
+        <v>0.63146025266558681</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>0</v>
+        <v>0.76935208351105566</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="0">
-        <v>0</v>
+        <v>0.63493797759790671</v>
       </c>
       <c r="AY23" s="0">
         <v>0</v>
@@ -4822,13 +4822,13 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>0</v>
+        <v>0.7853656270817102</v>
       </c>
       <c r="BF23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>0</v>
+        <v>0.69411912972425704</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.96936926233543286</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="0">
-        <v>0</v>
+        <v>0.79793844270993275</v>
       </c>
       <c r="AV24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0</v>
+        <v>0.94245865863984113</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>0</v>
+        <v>0.81433705361684727</v>
       </c>
       <c r="BC24" s="0">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>0</v>
+        <v>0.82794367668515734</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.80273407604869773</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5174,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0</v>
+        <v>0.68366484717193965</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
@@ -5287,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>0</v>
+        <v>0.74117555649747857</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.75018582938018441</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.79047800138058744</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="0">
-        <v>0</v>
+        <v>0.68986052961259836</v>
       </c>
       <c r="AQ26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0</v>
+        <v>0.62200746290950193</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="BL26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26" s="0">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0</v>
+        <v>0.83220017278728164</v>
       </c>
     </row>
     <row r="27">
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>0</v>
+        <v>0.75765368550963452</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5523,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>0</v>
+        <v>0.76628111054982073</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.58180260883622958</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0</v>
+        <v>0.85904319435089782</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="0">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>0</v>
+        <v>0.8383986901816789</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0</v>
+        <v>0.55856813615890544</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5717,19 +5717,19 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.89345127182242801</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5831,13 +5831,13 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>0</v>
+        <v>0.64014000628033529</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
       </c>
       <c r="AX28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="0">
         <v>0</v>
@@ -5861,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="BF28" s="0">
-        <v>0</v>
+        <v>0.57407200317153961</v>
       </c>
       <c r="BG28" s="0">
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>0</v>
+        <v>0.65904269487687328</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0</v>
+        <v>0.68498877174050676</v>
       </c>
       <c r="I29" s="0">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>0</v>
+        <v>0.87748311345349905</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>0</v>
+        <v>0.95129809149560951</v>
       </c>
       <c r="V29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.55884776434939054</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="0">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0</v>
+        <v>0.50590654486961206</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6282,13 +6282,13 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>0</v>
+        <v>0.86452123208413045</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="0">
-        <v>0</v>
+        <v>0.76287757827431635</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -6350,19 +6350,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>0</v>
+        <v>0.88995630481392929</v>
       </c>
       <c r="R31" s="0">
-        <v>0</v>
+        <v>0.74498277757034648</v>
       </c>
       <c r="S31" s="0">
-        <v>0</v>
+        <v>0.97384634514054524</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="BG31" s="0">
-        <v>0</v>
+        <v>0.88314695428269019</v>
       </c>
       <c r="BH31" s="0">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="BN31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO31" s="0">
         <v>0</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>0.87636020514697099</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="0">
-        <v>0</v>
+        <v>0.92168297746944794</v>
       </c>
       <c r="N32" s="0">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>0</v>
+        <v>0.72786074671506107</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>0</v>
+        <v>0.67478059922947997</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6870,10 +6870,10 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>0</v>
+        <v>0.93411734532719859</v>
       </c>
       <c r="AZ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0</v>
+        <v>0.95994060885869237</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="0">
-        <v>0</v>
+        <v>0.54280948485044656</v>
       </c>
       <c r="F34" s="0">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>1</v>
+        <v>0.71043973115387771</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0</v>
+        <v>0.85004149345330837</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="0">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.54028928592874337</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.96758368466406153</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>0.93517788358714626</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0</v>
+        <v>0.70656767502460061</v>
       </c>
       <c r="Z36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.52786396400948332</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="0">
-        <v>0</v>
+        <v>0.6004151895326304</v>
       </c>
       <c r="AP36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>0</v>
+        <v>0.54681871231677048</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="BG36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>0</v>
+        <v>0.85745096495757422</v>
       </c>
       <c r="M37" s="0">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.74191453803991902</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.95407904951655009</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0</v>
+        <v>0.50878603236321751</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="BH37" s="0">
-        <v>1</v>
+        <v>0.61462822348385382</v>
       </c>
       <c r="BI37" s="0">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0</v>
+        <v>0.89590182191234602</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>0</v>
+        <v>0.66717588315671628</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="0">
         <v>0</v>
@@ -7918,22 +7918,22 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0</v>
+        <v>0.8896348726341704</v>
       </c>
       <c r="BF38" s="0">
-        <v>0</v>
+        <v>0.88990395621833551</v>
       </c>
       <c r="BG38" s="0">
         <v>0</v>
       </c>
       <c r="BH38" s="0">
-        <v>0</v>
+        <v>0.5746872515294047</v>
       </c>
       <c r="BI38" s="0">
         <v>0</v>
       </c>
       <c r="BJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>0.83546852234485414</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.89455846391481342</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,16 +8073,16 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.80077612970429435</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0</v>
+        <v>0.91404315879695286</v>
       </c>
       <c r="AR39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>0.58083964904600305</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>0</v>
+        <v>0.75687905055307192</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.57443918540288752</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0</v>
+        <v>0.63106034382429521</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI40" s="0">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>0</v>
+        <v>0.60986781712784</v>
       </c>
       <c r="O41" s="0">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="0">
-        <v>0</v>
+        <v>0.84606429068951572</v>
       </c>
       <c r="AK41" s="0">
         <v>0</v>
@@ -8497,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="AR41" s="0">
-        <v>0</v>
+        <v>0.90631857798393201</v>
       </c>
       <c r="AS41" s="0">
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0</v>
+        <v>0.55473608611893643</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>0</v>
+        <v>0.60973413432596879</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>0</v>
+        <v>0.66846553998105851</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>0.68527592020827799</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="0">
-        <v>0</v>
+        <v>0.73192188321083562</v>
       </c>
       <c r="AA42" s="0">
         <v>0</v>
@@ -8682,13 +8682,13 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="0">
         <v>0</v>
@@ -8712,10 +8712,10 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0</v>
+        <v>0.68878857493346457</v>
       </c>
       <c r="AW42" s="0">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>0</v>
+        <v>0.65638150558812702</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8822,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="0">
-        <v>0</v>
+        <v>0.93727909263334164</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>0</v>
+        <v>0.86599292938178984</v>
       </c>
       <c r="AN43" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.74130606066888605</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>0</v>
+        <v>0.99729117392443278</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="0">
-        <v>0</v>
+        <v>0.54732024455107775</v>
       </c>
       <c r="V44" s="0">
         <v>0</v>
@@ -9106,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0</v>
+        <v>0.51447484089831219</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,13 +9121,13 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.78706275221978061</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.504077024718943</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.91802838766826467</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>0</v>
+        <v>0.73526362334938267</v>
       </c>
     </row>
     <row r="46">
@@ -9410,13 +9410,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>0</v>
+        <v>0.97885725701127968</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>0</v>
+        <v>0.96598299804703625</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.75109055640513989</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.8090633855756304</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="0">
-        <v>0</v>
+        <v>0.97955294255062086</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="0">
-        <v>0</v>
+        <v>0.78626506430720045</v>
       </c>
       <c r="F47" s="0">
         <v>0</v>
@@ -9634,10 +9634,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>0</v>
+        <v>0.77192333838433147</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9667,13 +9667,13 @@
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
       </c>
       <c r="X47" s="0">
-        <v>0</v>
+        <v>0.76402379487418592</v>
       </c>
       <c r="Y47" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>0</v>
+        <v>0.98792294010080228</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.91499759435816985</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.7105577252526678</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9819,13 +9819,13 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0</v>
+        <v>0.78707092661877853</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>0</v>
+        <v>0.70799727304518845</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9933,13 +9933,13 @@
         <v>0</v>
       </c>
       <c r="AP48" s="0">
-        <v>0</v>
+        <v>0.86919578182762014</v>
       </c>
       <c r="AQ48" s="0">
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="BI48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ48" s="0">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>0</v>
+        <v>0.60130802635316993</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="0">
-        <v>0</v>
+        <v>0.8759675863344174</v>
       </c>
       <c r="AM49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>0</v>
+        <v>0.81586568218446764</v>
       </c>
       <c r="X50" s="0">
         <v>0</v>
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>0</v>
+        <v>0.83864011151660922</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.84401428787680011</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0</v>
+        <v>0.6078823808159497</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0</v>
+        <v>0.68457405679777805</v>
       </c>
       <c r="AH51" s="0">
-        <v>1</v>
+        <v>0.99571828688497199</v>
       </c>
       <c r="AI51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.6082090145482808</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0</v>
+        <v>0.54756656033188189</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="BN51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO51" s="0">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="0">
         <v>0</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>0</v>
+        <v>0.71166048220630262</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.80362996733964231</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.63803788282026641</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10879,13 +10879,13 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0</v>
+        <v>0.95785092885869549</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -10990,28 +10990,28 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.95669139956876315</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.54886219298552796</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
       </c>
       <c r="BD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="0">
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0</v>
+        <v>0.52382413917468951</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0</v>
+        <v>0.77045729517916306</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0</v>
+        <v>0.87667757988387596</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>0</v>
+        <v>0.98479384392522118</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>0.75945803523182065</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.92454942367547854</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.58083884467269142</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11444,10 +11444,10 @@
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>0</v>
+        <v>0.67419358531537243</v>
       </c>
       <c r="BN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO55" s="0">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="0">
         <v>0</v>
@@ -11506,10 +11506,10 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0</v>
+        <v>0.59172678057531569</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11557,13 +11557,13 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>0</v>
+        <v>0.66885172492554634</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11614,13 +11614,13 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="0">
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.89890876036416023</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0</v>
+        <v>0.5092418239802009</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>0</v>
+        <v>0.58852729707873663</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0</v>
+        <v>0.6494384000639557</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="0">
-        <v>0</v>
+        <v>0.85425764838299978</v>
       </c>
       <c r="AC58" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>0</v>
+        <v>0.88863086528483015</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>0</v>
+        <v>0.52501917285092814</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0</v>
+        <v>0.82544312334338832</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>0</v>
+        <v>0.87471956562835973</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK59" s="0">
         <v>0</v>
@@ -12229,22 +12229,22 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD59" s="0">
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12288,13 +12288,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>0</v>
+        <v>0.59913086539862848</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>0.56702176782509395</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12348,13 +12348,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="0">
-        <v>0</v>
+        <v>0.93650253269390582</v>
       </c>
       <c r="X60" s="0">
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>0</v>
+        <v>0.71431681251614543</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
@@ -12390,16 +12390,16 @@
         <v>0</v>
       </c>
       <c r="AK60" s="0">
-        <v>1</v>
+        <v>0.73481454446693284</v>
       </c>
       <c r="AL60" s="0">
-        <v>0</v>
+        <v>0.97556280834362119</v>
       </c>
       <c r="AM60" s="0">
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12488,13 +12488,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1</v>
+        <v>0.71094561090586539</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="0">
-        <v>0</v>
+        <v>0.66418658952085408</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AV61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>0</v>
+        <v>0.65710830310998225</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.93731502679473433</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>0</v>
+        <v>0.71415427319010405</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>0</v>
+        <v>0.95109526848808901</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0</v>
+        <v>0.53690300252381928</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>0</v>
+        <v>0.85355462100250667</v>
       </c>
       <c r="W63" s="0">
         <v>0</v>
@@ -12984,10 +12984,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.61953455099416432</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.78476437613368355</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
@@ -13181,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>0</v>
+        <v>0.69614025324208106</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.73180246903354695</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0</v>
+        <v>0.82818802907468081</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>0</v>
+        <v>0.53220291371976813</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0</v>
+        <v>0.76040731026909625</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>0</v>
+        <v>0.57181122925591754</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13495,10 +13495,10 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.62473704979389666</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.71762240559739521</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>0</v>
+        <v>0.9673976968530853</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0</v>
+        <v>0.91687981874544566</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="0">
         <v>0</v>
@@ -13608,16 +13608,16 @@
         <v>0</v>
       </c>
       <c r="AE66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0</v>
+        <v>0.90951043944732635</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0</v>
+        <v>0.99507864890367381</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="AY66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="0">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.61972856046050773</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0</v>
+        <v>0.83452888019425164</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.74391949918195432</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.68038180561674788</v>
       </c>
     </row>
     <row r="68">
@@ -13954,10 +13954,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0</v>
+        <v>0.95020472103504572</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
@@ -14014,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>0</v>
+        <v>0.82361526897317239</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.70035084932403235</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject12.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject12.xlsx
@@ -90,7 +90,7 @@
     <col min="32" max="32" width="12.7109375" customWidth="true"/>
     <col min="33" max="33" width="12.7109375" customWidth="true"/>
     <col min="34" max="34" width="12.7109375" customWidth="true"/>
-    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
     <col min="36" max="36" width="12.7109375" customWidth="true"/>
     <col min="37" max="37" width="12.7109375" customWidth="true"/>
     <col min="38" max="38" width="12.7109375" customWidth="true"/>
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.70588277226829721</v>
+        <v>0.76789154492876133</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -221,7 +221,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="0">
-        <v>0.61333359925547826</v>
+        <v>0.87636020514697099</v>
       </c>
       <c r="AG1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0.59056516891837618</v>
+        <v>0.93517788358714626</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.81544492981701699</v>
+        <v>0.83546852234485414</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>0.51169297894409949</v>
+        <v>0.59913086539862848</v>
       </c>
       <c r="BI3" s="0">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>0.7977985386838069</v>
+        <v>0.95549693879929154</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0.53807718281115702</v>
+        <v>0.78804554205654154</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>0.9842407059581153</v>
+        <v>0.99729117392443278</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>0.77080339590794433</v>
+        <v>0.78707092661877853</v>
       </c>
       <c r="AW4" s="0">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>0.63125905570946028</v>
+        <v>0.63146025266558681</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.51618600399391878</v>
+        <v>0.97885725701127968</v>
       </c>
       <c r="AU5" s="0">
-        <v>0.55587717009814575</v>
+        <v>0.78626506430720045</v>
       </c>
       <c r="AV5" s="0">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>0.63977595336217985</v>
+        <v>0.88679407855487025</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>0.56634852264252533</v>
+        <v>0.82818802907468081</v>
       </c>
       <c r="BN6" s="0">
-        <v>0.87560208982252008</v>
+        <v>0.9673976968530853</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.77265588005901531</v>
+        <v>0.93343611233412505</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>0.78971598491222328</v>
+        <v>0.96149381970311565</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.65060593704897496</v>
+        <v>0.82794367668515734</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>0.91711362510618666</v>
+        <v>0.96473384915773652</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.51336578008712763</v>
+        <v>0.65638150558812702</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.79306125197145727</v>
+        <v>0.93292794378257693</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0.60256924810147949</v>
+        <v>0.95109526848808901</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0.55820823456084812</v>
+        <v>0.80610251047842107</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0.85171566548204458</v>
+        <v>0.91687981874544566</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.58761582339652874</v>
+        <v>0.71482072692417875</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.54023187390498706</v>
+        <v>0.96053096610330935</v>
       </c>
       <c r="M11" s="0">
         <v>0.72524257732816011</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.52045182208796981</v>
+        <v>0.87023846057615439</v>
       </c>
       <c r="K12" s="0">
         <v>0.96053096610330935</v>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.5950000015031629</v>
+        <v>0.74117555649747857</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.57431767497347863</v>
+        <v>0.89345127182242801</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0.60464284714146832</v>
+        <v>0.9044472883094099</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.70301444204274566</v>
+        <v>0.72524257732816011</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.54774833939095946</v>
+        <v>0.92168297746944794</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2812,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>0.68180753965674268</v>
+        <v>0.71912081598364352</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.6538553646577685</v>
+        <v>0.72012567644956582</v>
       </c>
       <c r="F14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.78989487936012726</v>
+        <v>0.86522795107182571</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>0.51786021232346902</v>
+        <v>0.83361049781843644</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0.78689205900787851</v>
+        <v>0.95785092885869549</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.89318865423068083</v>
+        <v>0.99634346893862658</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0.82047851191976251</v>
+        <v>0.93727909263334164</v>
       </c>
       <c r="AR15" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.54249618869801175</v>
+        <v>0.81752643185518747</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.76885105247037056</v>
+        <v>0.87748311345349905</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5044740670297756</v>
+        <v>0.55771890514294276</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0.56283834354913886</v>
+        <v>0.83993727856430733</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>0.69426385450843775</v>
+        <v>0.88995630481392929</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="0">
-        <v>0.52461834735827395</v>
+        <v>0.74498277757034648</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.70916509918869064</v>
+        <v>0.97384634514054524</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0.64337915635322052</v>
+        <v>0.75945803523182065</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0.66962599569924575</v>
+        <v>0.83452888019425164</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>0.72011837256756028</v>
+        <v>0.75687905055307192</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0.70454084700780006</v>
+        <v>0.92454942367547854</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.83477309898299668</v>
+        <v>0.84279243550409166</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.51963803099015848</v>
+        <v>0.95129809149560951</v>
       </c>
       <c r="AD21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.56661563701200024</v>
+        <v>0.68527592020827799</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.64916533156874801</v>
+        <v>0.76628111054982073</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="0">
-        <v>0.79182145227284106</v>
+        <v>0.85355462100250667</v>
       </c>
       <c r="BL22" s="0">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="0">
-        <v>0.57111986996987452</v>
+        <v>0.61715642441596819</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>0.76935208351105566</v>
+        <v>0.87581745301124192</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="0">
-        <v>0.63493797759790671</v>
+        <v>0.81586568218446764</v>
       </c>
       <c r="AY23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>0.69411912972425704</v>
+        <v>0.93650253269390582</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>0.81433705361684727</v>
+        <v>0.87667757988387596</v>
       </c>
       <c r="BC24" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0.68366484717193965</v>
+        <v>0.70656767502460061</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.75018582938018441</v>
+        <v>0.96936926233543286</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.79047800138058744</v>
+        <v>0.80273407604869773</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="0">
-        <v>0.68986052961259836</v>
+        <v>0.73192188321083562</v>
       </c>
       <c r="AQ26" s="0">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0.83220017278728164</v>
+        <v>0.95020472103504572</v>
       </c>
     </row>
     <row r="27">
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>0.75765368550963452</v>
+        <v>0.93066965591836137</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.85904319435089782</v>
+        <v>0.89590182191234602</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0.55856813615890544</v>
+        <v>0.82544312334338832</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>0.64014000628033529</v>
+        <v>0.70799727304518845</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5861,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="BF28" s="0">
-        <v>0.57407200317153961</v>
+        <v>0.85425764838299978</v>
       </c>
       <c r="BG28" s="0">
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>0.65904269487687328</v>
+        <v>0.71431681251614543</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0.68498877174050676</v>
+        <v>0.84161921340581247</v>
       </c>
       <c r="I29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.55884776434939054</v>
+        <v>0.58180260883622958</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0.50590654486961206</v>
+        <v>0.58852729707873663</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="0">
-        <v>0.76287757827431635</v>
+        <v>0.98667115086410595</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>0.67478059922947997</v>
+        <v>0.90951043944732635</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="0">
-        <v>0.54280948485044656</v>
+        <v>0.57584467180395116</v>
       </c>
       <c r="F34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>0.71043973115387771</v>
+        <v>0.99571828688497199</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0.85004149345330837</v>
+        <v>0.99507864890367381</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.52786396400948332</v>
+        <v>0.54028928592874337</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="0">
-        <v>0.6004151895326304</v>
+        <v>0.84606429068951572</v>
       </c>
       <c r="AP36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>0.54681871231677048</v>
+        <v>0.66885172492554634</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>0.85745096495757422</v>
+        <v>0.91586770296169751</v>
       </c>
       <c r="M37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.74191453803991902</v>
+        <v>0.96758368466406153</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>0.50878603236321751</v>
+        <v>0.98792294010080228</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="BH37" s="0">
-        <v>0.61462822348385382</v>
+        <v>0.73481454446693284</v>
       </c>
       <c r="BI37" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>0.66717588315671628</v>
+        <v>0.8759675863344174</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="BH38" s="0">
-        <v>0.5746872515294047</v>
+        <v>0.97556280834362119</v>
       </c>
       <c r="BI38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.89455846391481342</v>
+        <v>0.95407904951655009</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0.58083964904600305</v>
+        <v>0.59967495750345357</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.57443918540288752</v>
+        <v>0.80077612970429435</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0.63106034382429521</v>
+        <v>0.83864011151660922</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>0.60986781712784</v>
+        <v>0.78666161871113993</v>
       </c>
       <c r="O41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0.55473608611893643</v>
+        <v>0.96598299804703625</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>0.60973413432596879</v>
+        <v>0.71166048220630262</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>0.66846553998105851</v>
+        <v>0.87656876767234015</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0.68878857493346457</v>
+        <v>0.86919578182762014</v>
       </c>
       <c r="AW42" s="0">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>0.86599292938178984</v>
+        <v>0.91404315879695286</v>
       </c>
       <c r="AN43" s="0">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="0">
-        <v>0.54732024455107775</v>
+        <v>0.57810252003289464</v>
       </c>
       <c r="V44" s="0">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0.51447484089831219</v>
+        <v>0.90631857798393201</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.504077024718943</v>
+        <v>0.74130606066888605</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>0.73526362334938267</v>
+        <v>0.82361526897317239</v>
       </c>
     </row>
     <row r="46">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.75109055640513989</v>
+        <v>0.78706275221978061</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="0">
-        <v>0.97955294255062086</v>
+        <v>0.98479384392522118</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>0.77192333838433147</v>
+        <v>0.90511153477355766</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0">
-        <v>0.76402379487418592</v>
+        <v>0.79793844270993275</v>
       </c>
       <c r="Y47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.91499759435816985</v>
+        <v>0.91802838766826467</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.7105577252526678</v>
+        <v>0.8090633855756304</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.60130802635316993</v>
+        <v>0.8383986901816789</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0.6078823808159497</v>
+        <v>0.94245865863984113</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0.68457405679777805</v>
+        <v>0.93411734532719859</v>
       </c>
       <c r="AH51" s="0">
         <v>0.99571828688497199</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.6082090145482808</v>
+        <v>0.95669139956876315</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0.54756656033188189</v>
+        <v>0.65710830310998225</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.80362996733964231</v>
+        <v>0.84401428787680011</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0.95669139956876315</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.54886219298552796</v>
+        <v>0.63803788282026641</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0.52382413917468951</v>
+        <v>0.52501917285092814</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.58083884467269142</v>
+        <v>0.89890876036416023</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0.59172678057531569</v>
+        <v>0.62200746290950193</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0.5092418239802009</v>
+        <v>0.7853656270817102</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0.6494384000639557</v>
+        <v>0.8896348726341704</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>0.88863086528483015</v>
+        <v>0.88990395621833551</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="AE59" s="0">
-        <v>0.87471956562835973</v>
+        <v>0.88314695428269019</v>
       </c>
       <c r="AF59" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.56702176782509395</v>
+        <v>0.99841657479221246</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.71094561090586539</v>
+        <v>0.91651559334887744</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="0">
-        <v>0.66418658952085408</v>
+        <v>0.86452123208413045</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>0.71415427319010405</v>
+        <v>0.78047909622243705</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0.53690300252381928</v>
+        <v>0.77045729517916306</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.61953455099416432</v>
+        <v>0.93731502679473433</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>0.69614025324208106</v>
+        <v>0.72786074671506107</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>0.53220291371976813</v>
+        <v>0.53830471322210283</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0.76040731026909625</v>
+        <v>0.95994060885869237</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>0.57181122925591754</v>
+        <v>0.67419358531537243</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.62473704979389666</v>
+        <v>0.78476437613368355</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.71762240559739521</v>
+        <v>0.74391949918195432</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.61972856046050773</v>
+        <v>0.73180246903354695</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.68038180561674788</v>
+        <v>0.70035084932403235</v>
       </c>
     </row>
     <row r="68">
